--- a/output/https___www_avtxwholesale_com.xlsx
+++ b/output/https___www_avtxwholesale_com.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['n/a']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['n/a']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['n/a']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['n/a']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['n/a']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['n/a']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
